--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3Openfield2024-12-06171458trace/processed_29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3Openfield2024-12-06171458trace/processed_29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D2" t="n">
-        <v>2.458621160935428</v>
+        <v>2.51461878810483</v>
       </c>
       <c r="E2" t="n">
-        <v>1.65834203981574</v>
+        <v>1.700107617577031</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8002791211196887</v>
+        <v>-0.8145111705277996</v>
       </c>
       <c r="G2" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H2" t="n">
-        <v>50.9327455436231</v>
+        <v>49.11616733049652</v>
       </c>
       <c r="I2" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K2" t="n">
-        <v>190.8478316980056</v>
+        <v>194.597806682988</v>
       </c>
       <c r="L2" t="n">
-        <v>4.670780332007954</v>
+        <v>4.753160470145313</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7647236190544502</v>
+        <v>0.6917526447936125</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7469879518072289</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1865388589186053</v>
+        <v>0.1629268146593489</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9100141741131856</v>
+        <v>0.9134334699412309</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C3" t="n">
         <v>387</v>
       </c>
       <c r="D3" t="n">
-        <v>2.564198858815729</v>
+        <v>2.615695855706134</v>
       </c>
       <c r="E3" t="n">
-        <v>1.76391973769604</v>
+        <v>1.801184685178334</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8002791211196887</v>
+        <v>-0.8145111705277996</v>
       </c>
       <c r="G3" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H3" t="n">
-        <v>44.11685745701749</v>
+        <v>43.74117276198348</v>
       </c>
       <c r="I3" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J3" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K3" t="n">
-        <v>166.8318849942696</v>
+        <v>167.2364026013825</v>
       </c>
       <c r="L3" t="n">
-        <v>4.871352198301647</v>
+        <v>4.944217470289183</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8935208065290458</v>
+        <v>0.897949047592514</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2103898331764467</v>
+        <v>0.1770029618049797</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9075486105599125</v>
+        <v>0.9148538787393987</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>280</v>
+        <v>239</v>
       </c>
       <c r="B4" t="n">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="C4" t="n">
         <v>387</v>
       </c>
       <c r="D4" t="n">
-        <v>2.755472847368313</v>
+        <v>2.374833372778728</v>
       </c>
       <c r="E4" t="n">
-        <v>2.205650198652596</v>
+        <v>1.687600177205526</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.549822648715717</v>
+        <v>-0.6872331955732012</v>
       </c>
       <c r="G4" t="n">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="H4" t="n">
-        <v>49.72172063819318</v>
+        <v>110.25847638845</v>
       </c>
       <c r="I4" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J4" t="n">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="K4" t="n">
-        <v>196.3036346147387</v>
+        <v>267.4752197992609</v>
       </c>
       <c r="L4" t="n">
-        <v>8.313395466880515</v>
+        <v>8.197806376480719</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8488298181458074</v>
+        <v>0.8785875551557238</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5507246376811594</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4162849830954606</v>
+        <v>0.4146746166133101</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9635765474305935</v>
+        <v>0.7695650160096043</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="B5" t="n">
-        <v>275</v>
+        <v>320</v>
       </c>
       <c r="C5" t="n">
         <v>387</v>
       </c>
       <c r="D5" t="n">
-        <v>2.293593473512713</v>
+        <v>1.877510245436949</v>
       </c>
       <c r="E5" t="n">
-        <v>1.627606460146321</v>
+        <v>1.395785070564521</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6659870133663924</v>
+        <v>-0.481725174872428</v>
       </c>
       <c r="G5" t="n">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>112.0719637898139</v>
+        <v>33.9145134918171</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="K5" t="n">
-        <v>264.4690214533569</v>
+        <v>125.647350546988</v>
       </c>
       <c r="L5" t="n">
-        <v>8.052978897715168</v>
+        <v>2.614404263518191</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.867183443711784</v>
+        <v>0.8723403280395781</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3214285714285715</v>
+        <v>0.4925373134328358</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3737207917151935</v>
+        <v>0.312592266374642</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7767291228568837</v>
+        <v>0.9549640000006303</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n4</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D6" t="n">
-        <v>3.337321974241799</v>
+        <v>2.274418954183787</v>
       </c>
       <c r="E6" t="n">
-        <v>2.654266274610536</v>
+        <v>1.666317754951941</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6830556996312634</v>
+        <v>-0.6081011992318461</v>
       </c>
       <c r="G6" t="n">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="H6" t="n">
-        <v>26.10728262330289</v>
+        <v>32.30109661171232</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="K6" t="n">
-        <v>224.863857860244</v>
+        <v>59.44609388842063</v>
       </c>
       <c r="L6" t="n">
-        <v>24.55092939986322</v>
+        <v>5.030294662549245</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.8399296329824804</v>
+        <v>0.74179431486818</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.15</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3812992621438274</v>
+        <v>0.1795557068992869</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9150477191014902</v>
+        <v>0.9834752859849618</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,40 +987,40 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87</v>
+        <v>289</v>
       </c>
       <c r="B7" t="n">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="C7" t="n">
-        <v>212</v>
+        <v>387</v>
       </c>
       <c r="D7" t="n">
-        <v>2.808556342109024</v>
+        <v>1.80950393079926</v>
       </c>
       <c r="E7" t="n">
-        <v>1.963091755423968</v>
+        <v>1.303227123874531</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8454645866850559</v>
+        <v>-0.5062768069247288</v>
       </c>
       <c r="G7" t="n">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="H7" t="n">
-        <v>100.9194376991572</v>
+        <v>33.08949079204558</v>
       </c>
       <c r="I7" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J7" t="n">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K7" t="n">
-        <v>218.6335079756127</v>
+        <v>96.42384671809089</v>
       </c>
       <c r="L7" t="n">
-        <v>6.569457257277143</v>
+        <v>2.858356450993177</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1036,24 +1036,24 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.7675036919650777</v>
+        <v>0.8232060797092269</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3229729626553619</v>
+        <v>0.3955313840803155</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8672325642710214</v>
+        <v>0.6836762985800331</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n28</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>2.175735814801056</v>
+        <v>2.631609243851366</v>
       </c>
       <c r="E8" t="n">
-        <v>1.483068705461311</v>
+        <v>1.919594809161831</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6926671093397457</v>
+        <v>-0.7120144346895346</v>
       </c>
       <c r="G8" t="n">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="H8" t="n">
-        <v>28.3048042940346</v>
+        <v>20.89287249957929</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="K8" t="n">
-        <v>126.0412038584209</v>
+        <v>154.8050216409084</v>
       </c>
       <c r="L8" t="n">
-        <v>5.882534415527455</v>
+        <v>6.638383479439533</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.8359109233727148</v>
+        <v>0.6072118501893371</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3733333333333334</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2231806847813771</v>
+        <v>0.3092197952249934</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7102786776856476</v>
+        <v>0.9668888064747828</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>124</v>
+        <v>330</v>
       </c>
       <c r="B9" t="n">
-        <v>223</v>
+        <v>350</v>
       </c>
       <c r="C9" t="n">
         <v>387</v>
       </c>
       <c r="D9" t="n">
-        <v>3.297219209154261</v>
+        <v>1.568324661515869</v>
       </c>
       <c r="E9" t="n">
-        <v>2.443014856431186</v>
+        <v>0.9121995279836773</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8542043527230754</v>
+        <v>-0.6561251335321919</v>
       </c>
       <c r="G9" t="n">
-        <v>263</v>
+        <v>57</v>
       </c>
       <c r="H9" t="n">
-        <v>44.29854370524328</v>
+        <v>19.76920150927225</v>
       </c>
       <c r="I9" t="n">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>164</v>
+        <v>37</v>
       </c>
       <c r="K9" t="n">
-        <v>351.8107964278952</v>
+        <v>58.97242975411989</v>
       </c>
       <c r="L9" t="n">
-        <v>8.137357031620816</v>
+        <v>4.432370545710538</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.49871203788726</v>
+        <v>0.7186239394820612</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6036585365853658</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5689590485111311</v>
+        <v>0.3927450349521048</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3694268484623752</v>
+        <v>0.315937579272681</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1245,73 +1245,73 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>289</v>
+        <v>116</v>
       </c>
       <c r="D10" t="n">
-        <v>2.24468471942576</v>
+        <v>3.342206076141765</v>
       </c>
       <c r="E10" t="n">
-        <v>1.769066592935164</v>
+        <v>2.667989546192192</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.4756181264905959</v>
+        <v>-0.6742165299495732</v>
       </c>
       <c r="G10" t="n">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="H10" t="n">
-        <v>30.099341668579</v>
+        <v>25.84011030224665</v>
       </c>
       <c r="I10" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="K10" t="n">
-        <v>127.6021294706304</v>
+        <v>224.3700679408098</v>
       </c>
       <c r="L10" t="n">
-        <v>7.000856550462271</v>
+        <v>23.41823337825826</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(172), 'value': np.float64(0.6052250100149179), 'amplitude': np.float64(1.0808431365055138), 'start_idx': np.int64(152), 'end_idx': np.int64(186), 'duration': np.float64(34.0), 'fwhm': np.float64(17.739392224992685), 'rise_time': np.float64(20.0), 'decay_time': np.float64(14.0), 'auc': np.float64(22.600219579390913)}, {'index': np.int64(254), 'value': np.float64(0.8323970767817784), 'amplitude': np.float64(1.3080152032723742), 'start_idx': np.int64(238), 'end_idx': np.int64(260), 'duration': np.float64(22.0), 'fwhm': np.float64(25.00021102819383), 'rise_time': np.float64(16.0), 'decay_time': np.float64(6.0), 'auc': np.float64(20.124825209581616)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.4542504378617341</v>
+        <v>0.8371985196831383</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2724693192226417</v>
+        <v>0.3884080932194398</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4067247907262981</v>
+        <v>0.9154292873727975</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="B11" t="n">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="C11" t="n">
-        <v>387</v>
+        <v>213</v>
       </c>
       <c r="D11" t="n">
-        <v>2.283915524592378</v>
+        <v>2.826496081526268</v>
       </c>
       <c r="E11" t="n">
-        <v>1.58317556526927</v>
+        <v>1.988787750683292</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7007399593231078</v>
+        <v>-0.8377083308429754</v>
       </c>
       <c r="G11" t="n">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="H11" t="n">
-        <v>67.32041611242528</v>
+        <v>100.6134328720038</v>
       </c>
       <c r="I11" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J11" t="n">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="K11" t="n">
-        <v>219.9106035800921</v>
+        <v>219.1311444692819</v>
       </c>
       <c r="L11" t="n">
-        <v>5.085852734053457</v>
+        <v>6.533881207719881</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,36 +1380,810 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.9569156050169808</v>
+        <v>0.7733782828472152</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.296</v>
+        <v>0.5949367088607594</v>
       </c>
       <c r="R11" t="n">
-        <v>0.2352196358543863</v>
+        <v>0.322152820386269</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8987625016790279</v>
+        <v>0.854393687450177</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>96</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>82</v>
+      </c>
+      <c r="B12" t="n">
+        <v>115</v>
+      </c>
+      <c r="C12" t="n">
+        <v>213</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.380342372269569</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.91108697551548</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.4692553967540892</v>
+      </c>
+      <c r="G12" t="n">
+        <v>131</v>
+      </c>
+      <c r="H12" t="n">
+        <v>55.10011205167889</v>
+      </c>
+      <c r="I12" t="n">
+        <v>33</v>
+      </c>
+      <c r="J12" t="n">
+        <v>98</v>
+      </c>
+      <c r="K12" t="n">
+        <v>148.0461835948168</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.889894218218654</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0.9036661487066682</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.336734693877551</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.2959322721522206</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.7608586881974856</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>97</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>180</v>
+      </c>
+      <c r="B13" t="n">
+        <v>198</v>
+      </c>
+      <c r="C13" t="n">
+        <v>246</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.721675629908189</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.041196631964373</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6804789979438159</v>
+      </c>
+      <c r="G13" t="n">
+        <v>66</v>
+      </c>
+      <c r="H13" t="n">
+        <v>23.09536264230468</v>
+      </c>
+      <c r="I13" t="n">
+        <v>18</v>
+      </c>
+      <c r="J13" t="n">
+        <v>48</v>
+      </c>
+      <c r="K13" t="n">
+        <v>66.49628230466702</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.629032033563722</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0.9272803594106959</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.3806838039829738</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9611317757969069</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>98</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>147</v>
+      </c>
+      <c r="B14" t="n">
+        <v>221</v>
+      </c>
+      <c r="C14" t="n">
+        <v>387</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.362578692684454</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.517313562111051</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.8452651305734029</v>
+      </c>
+      <c r="G14" t="n">
+        <v>240</v>
+      </c>
+      <c r="H14" t="n">
+        <v>45.76642391889476</v>
+      </c>
+      <c r="I14" t="n">
+        <v>74</v>
+      </c>
+      <c r="J14" t="n">
+        <v>166</v>
+      </c>
+      <c r="K14" t="n">
+        <v>349.0018506030461</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8.509761099580704</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0.5855480632553342</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.4457831325301205</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.3493368638024588</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.3681257558329396</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>99</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>193</v>
+      </c>
+      <c r="B15" t="n">
+        <v>213</v>
+      </c>
+      <c r="C15" t="n">
+        <v>238</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.458790124033693</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.021434565526347</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.4373555585073464</v>
+      </c>
+      <c r="G15" t="n">
+        <v>45</v>
+      </c>
+      <c r="H15" t="n">
+        <v>27.30417700603016</v>
+      </c>
+      <c r="I15" t="n">
+        <v>20</v>
+      </c>
+      <c r="J15" t="n">
+        <v>25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>58.8544504515701</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7.23679222123068</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>0.5920147709659537</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.04572921585417904</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.912305343128898</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>100</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>238</v>
+      </c>
+      <c r="B16" t="n">
+        <v>253</v>
+      </c>
+      <c r="C16" t="n">
+        <v>291</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.329021809355372</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8916662508480253</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.4373555585073464</v>
+      </c>
+      <c r="G16" t="n">
+        <v>53</v>
+      </c>
+      <c r="H16" t="n">
+        <v>26.67724641543799</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>38</v>
+      </c>
+      <c r="K16" t="n">
+        <v>40.4964580573324</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.911620840582603</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0.7487253053723987</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3947368421052632</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.07911298239550625</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.8570421069156799</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>101</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>199</v>
+      </c>
+      <c r="B17" t="n">
+        <v>222</v>
+      </c>
+      <c r="C17" t="n">
+        <v>254</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.364879154768584</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.637784724029951</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.7270944307386323</v>
+      </c>
+      <c r="G17" t="n">
+        <v>55</v>
+      </c>
+      <c r="H17" t="n">
+        <v>29.00288769194992</v>
+      </c>
+      <c r="I17" t="n">
+        <v>23</v>
+      </c>
+      <c r="J17" t="n">
+        <v>32</v>
+      </c>
+      <c r="K17" t="n">
+        <v>81.8042001300969</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.92308717259024</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>0.7860544888508452</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.2626632273903463</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.9462797997860081</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>102</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>254</v>
+      </c>
+      <c r="B18" t="n">
+        <v>280</v>
+      </c>
+      <c r="C18" t="n">
+        <v>387</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.836851935632606</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.109757504893974</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.7270944307386323</v>
+      </c>
+      <c r="G18" t="n">
+        <v>133</v>
+      </c>
+      <c r="H18" t="n">
+        <v>24.16005844555355</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>107</v>
+      </c>
+      <c r="K18" t="n">
+        <v>199.9125804842578</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.600587778853204</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0.7458028434660338</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.2429906542056075</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.6283664879195694</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.3880042091045659</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>103</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>222</v>
+      </c>
+      <c r="B19" t="n">
+        <v>261</v>
+      </c>
+      <c r="C19" t="n">
+        <v>387</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.322484573311191</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.601947638946323</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.7205369343648679</v>
+      </c>
+      <c r="G19" t="n">
+        <v>165</v>
+      </c>
+      <c r="H19" t="n">
+        <v>69.27418713207999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>39</v>
+      </c>
+      <c r="J19" t="n">
+        <v>126</v>
+      </c>
+      <c r="K19" t="n">
+        <v>223.2412267558988</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.152911407881559</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0.9344344429029442</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3095238095238095</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.2955576192538443</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.8360159688627141</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
           <t>n41</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>55</v>
-      </c>
-      <c r="V11" t="inlineStr">
+      <c r="U19" t="n">
+        <v>104</v>
+      </c>
+      <c r="V19" t="inlineStr">
         <is>
           <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>257</v>
+      </c>
+      <c r="B20" t="n">
+        <v>283</v>
+      </c>
+      <c r="C20" t="n">
+        <v>387</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.349786175778636</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8173698687635808</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.532416307015055</v>
+      </c>
+      <c r="G20" t="n">
+        <v>130</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20.00156240800419</v>
+      </c>
+      <c r="I20" t="n">
+        <v>26</v>
+      </c>
+      <c r="J20" t="n">
+        <v>104</v>
+      </c>
+      <c r="K20" t="n">
+        <v>168.2533110562991</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.623689855825601</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>0.6955934612578811</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.6665299324181998</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.5539118404588104</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>n46</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>105</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3Openfield2024-12-06171458trace/processed_29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3Openfield2024-12-06171458trace/processed_29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,37 +560,37 @@
         <v>120</v>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" t="n">
-        <v>2.51461878810483</v>
+        <v>2.503478864105829</v>
       </c>
       <c r="E2" t="n">
-        <v>1.700107617577031</v>
+        <v>1.689144059946253</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8145111705277996</v>
+        <v>-0.8143348041595755</v>
       </c>
       <c r="G2" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H2" t="n">
-        <v>49.11616733049652</v>
+        <v>49.64114116767888</v>
       </c>
       <c r="I2" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K2" t="n">
-        <v>194.597806682988</v>
+        <v>193.9025926531758</v>
       </c>
       <c r="L2" t="n">
-        <v>4.753160470145313</v>
+        <v>4.743530597288924</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.6917526447936125</v>
+        <v>0.7007392400003771</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.6976744186046512</v>
+        <v>0.7261904761904762</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1629268146593489</v>
+        <v>0.1763646661469427</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9134334699412309</v>
+        <v>0.9123180432845804</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C3" t="n">
         <v>387</v>
       </c>
       <c r="D3" t="n">
-        <v>2.615695855706134</v>
+        <v>2.602485050756194</v>
       </c>
       <c r="E3" t="n">
-        <v>1.801184685178334</v>
+        <v>1.788150246596618</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8145111705277996</v>
+        <v>-0.8143348041595755</v>
       </c>
       <c r="G3" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H3" t="n">
-        <v>43.74117276198348</v>
+        <v>43.93631038346433</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K3" t="n">
-        <v>167.2364026013825</v>
+        <v>167.762277587671</v>
       </c>
       <c r="L3" t="n">
-        <v>4.944217470289183</v>
+        <v>4.931125101253168</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.897949047592514</v>
+        <v>0.8922665094364568</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3444444444444444</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1770029618049797</v>
+        <v>0.1859386296848081</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9148538787393987</v>
+        <v>0.9123584340361992</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="B4" t="n">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="C4" t="n">
         <v>387</v>
       </c>
       <c r="D4" t="n">
-        <v>2.374833372778728</v>
+        <v>2.768866656849702</v>
       </c>
       <c r="E4" t="n">
-        <v>1.687600177205526</v>
+        <v>2.229993647876024</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6872331955732012</v>
+        <v>-0.5388730089736781</v>
       </c>
       <c r="G4" t="n">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="H4" t="n">
-        <v>110.25847638845</v>
+        <v>39.47390343784417</v>
       </c>
       <c r="I4" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="K4" t="n">
-        <v>267.4752197992609</v>
+        <v>194.8173600711998</v>
       </c>
       <c r="L4" t="n">
-        <v>8.197806376480719</v>
+        <v>8.271465189958581</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8785875551557238</v>
+        <v>0.8823438636777011</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2982456140350877</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4146746166133101</v>
+        <v>0.4649029933665957</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7695650160096043</v>
+        <v>0.9615124430562544</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="B5" t="n">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="C5" t="n">
         <v>387</v>
       </c>
       <c r="D5" t="n">
-        <v>1.877510245436949</v>
+        <v>2.345876896279637</v>
       </c>
       <c r="E5" t="n">
-        <v>1.395785070564521</v>
+        <v>1.666200105311703</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.481725174872428</v>
+        <v>-0.6796767909679339</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="H5" t="n">
-        <v>33.9145134918171</v>
+        <v>111.3855449551513</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="K5" t="n">
-        <v>125.647350546988</v>
+        <v>266.4314108676739</v>
       </c>
       <c r="L5" t="n">
-        <v>2.614404263518191</v>
+        <v>8.137310446221278</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8723403280395781</v>
+        <v>0.8715891358036837</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4925373134328358</v>
+        <v>0.3097345132743363</v>
       </c>
       <c r="R5" t="n">
-        <v>0.312592266374642</v>
+        <v>0.3938043846702333</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9549640000006303</v>
+        <v>0.7677615451198554</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n4</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="n">
         <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="n">
-        <v>2.274418954183787</v>
+        <v>2.221451987743052</v>
       </c>
       <c r="E6" t="n">
-        <v>1.666317754951941</v>
+        <v>1.620223118470063</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6081011992318461</v>
+        <v>-0.6012288692729884</v>
       </c>
       <c r="G6" t="n">
         <v>46</v>
       </c>
       <c r="H6" t="n">
-        <v>32.30109661171232</v>
+        <v>32.2922233378884</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" t="n">
-        <v>59.44609388842063</v>
+        <v>58.28782823445599</v>
       </c>
       <c r="L6" t="n">
-        <v>5.030294662549245</v>
+        <v>4.905906645956109</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,16 +950,16 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.74179431486818</v>
+        <v>0.6927155619060739</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1795557068992869</v>
+        <v>0.1424174202723011</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9834752859849618</v>
+        <v>0.9807804968597715</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,65 +987,65 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>289</v>
+        <v>116</v>
       </c>
       <c r="B7" t="n">
-        <v>320</v>
+        <v>216</v>
       </c>
       <c r="C7" t="n">
         <v>387</v>
       </c>
       <c r="D7" t="n">
-        <v>1.80950393079926</v>
+        <v>2.142396132383847</v>
       </c>
       <c r="E7" t="n">
-        <v>1.303227123874531</v>
+        <v>1.643865559093444</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5062768069247288</v>
+        <v>-0.4985305732904033</v>
       </c>
       <c r="G7" t="n">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="H7" t="n">
-        <v>33.08949079204558</v>
+        <v>41.93128907540415</v>
       </c>
       <c r="I7" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="K7" t="n">
-        <v>96.42384671809089</v>
+        <v>282.8211563241281</v>
       </c>
       <c r="L7" t="n">
-        <v>2.858356450993177</v>
+        <v>3.378590972645714</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(321), 'value': np.float64(1.3275518190598485), 'amplitude': np.float64(1.8260823923502518), 'start_idx': np.int64(289), 'end_idx': np.int64(361), 'duration': np.float64(72.0), 'fwhm': np.float64(31.439640671055884), 'rise_time': np.float64(32.0), 'decay_time': np.float64(40.0), 'auc': np.float64(86.02296612999685)}]</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.8232060797092269</v>
+        <v>0.482256834885738</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4626865671641791</v>
+        <v>0.5847953216374269</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3955313840803155</v>
+        <v>0.437954335817299</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6836762985800331</v>
+        <v>0.4437040236772752</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1082,19 +1082,19 @@
         <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>2.631609243851366</v>
+        <v>2.603141282873496</v>
       </c>
       <c r="E8" t="n">
-        <v>1.919594809161831</v>
+        <v>1.890177752095651</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7120144346895346</v>
+        <v>-0.7129635307778447</v>
       </c>
       <c r="G8" t="n">
         <v>82</v>
       </c>
       <c r="H8" t="n">
-        <v>20.89287249957929</v>
+        <v>21.00169326821224</v>
       </c>
       <c r="I8" t="n">
         <v>33</v>
@@ -1103,10 +1103,10 @@
         <v>49</v>
       </c>
       <c r="K8" t="n">
-        <v>154.8050216409084</v>
+        <v>154.7859271279868</v>
       </c>
       <c r="L8" t="n">
-        <v>6.638383479439533</v>
+        <v>6.620404814745199</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,16 +1122,16 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.6072118501893371</v>
+        <v>0.6079167721601139</v>
       </c>
       <c r="Q8" t="n">
         <v>0.673469387755102</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3092197952249934</v>
+        <v>0.3092064935574402</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9668888064747828</v>
+        <v>0.9669791260407001</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1168,19 +1168,19 @@
         <v>387</v>
       </c>
       <c r="D9" t="n">
-        <v>1.568324661515869</v>
+        <v>1.51788598562336</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9121995279836773</v>
+        <v>0.8654085557850214</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6561251335321919</v>
+        <v>-0.652477429838339</v>
       </c>
       <c r="G9" t="n">
         <v>57</v>
       </c>
       <c r="H9" t="n">
-        <v>19.76920150927225</v>
+        <v>21.17115253311033</v>
       </c>
       <c r="I9" t="n">
         <v>20</v>
@@ -1189,10 +1189,10 @@
         <v>37</v>
       </c>
       <c r="K9" t="n">
-        <v>58.97242975411989</v>
+        <v>58.40216048946785</v>
       </c>
       <c r="L9" t="n">
-        <v>4.432370545710538</v>
+        <v>4.30367473400532</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7186239394820612</v>
+        <v>0.724258315856663</v>
       </c>
       <c r="Q9" t="n">
         <v>0.5405405405405406</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3927450349521048</v>
+        <v>0.3730380237650234</v>
       </c>
       <c r="S9" t="n">
-        <v>0.315937579272681</v>
+        <v>0.2901738692343073</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1254,19 +1254,19 @@
         <v>116</v>
       </c>
       <c r="D10" t="n">
-        <v>3.342206076141765</v>
+        <v>3.341960874566987</v>
       </c>
       <c r="E10" t="n">
-        <v>2.667989546192192</v>
+        <v>2.65997549659661</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6742165299495732</v>
+        <v>-0.6819853779703769</v>
       </c>
       <c r="G10" t="n">
         <v>116</v>
       </c>
       <c r="H10" t="n">
-        <v>25.84011030224665</v>
+        <v>25.86060978042496</v>
       </c>
       <c r="I10" t="n">
         <v>15</v>
@@ -1275,10 +1275,10 @@
         <v>101</v>
       </c>
       <c r="K10" t="n">
-        <v>224.3700679408098</v>
+        <v>225.2056393960819</v>
       </c>
       <c r="L10" t="n">
-        <v>23.41823337825826</v>
+        <v>23.82067885495338</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1294,16 +1294,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.8371985196831383</v>
+        <v>0.8370415027534127</v>
       </c>
       <c r="Q10" t="n">
         <v>0.1485148514851485</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3884080932194398</v>
+        <v>0.3863469276672448</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9154292873727975</v>
+        <v>0.9143063867464793</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1340,19 +1340,19 @@
         <v>213</v>
       </c>
       <c r="D11" t="n">
-        <v>2.826496081526268</v>
+        <v>2.818721501017327</v>
       </c>
       <c r="E11" t="n">
-        <v>1.988787750683292</v>
+        <v>1.979580502772408</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8377083308429754</v>
+        <v>-0.8391409982449186</v>
       </c>
       <c r="G11" t="n">
         <v>126</v>
       </c>
       <c r="H11" t="n">
-        <v>100.6134328720038</v>
+        <v>100.8411276703036</v>
       </c>
       <c r="I11" t="n">
         <v>47</v>
@@ -1361,10 +1361,10 @@
         <v>79</v>
       </c>
       <c r="K11" t="n">
-        <v>219.1311444692819</v>
+        <v>219.1575912300937</v>
       </c>
       <c r="L11" t="n">
-        <v>6.533881207719881</v>
+        <v>6.539508928523238</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1380,16 +1380,16 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.7733782828472152</v>
+        <v>0.7745596284175074</v>
       </c>
       <c r="Q11" t="n">
         <v>0.5949367088607594</v>
       </c>
       <c r="R11" t="n">
-        <v>0.322152820386269</v>
+        <v>0.3201018991116207</v>
       </c>
       <c r="S11" t="n">
-        <v>0.854393687450177</v>
+        <v>0.8601890073309384</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1420,37 +1420,37 @@
         <v>82</v>
       </c>
       <c r="B12" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" t="n">
-        <v>2.380342372269569</v>
+        <v>2.358493032634426</v>
       </c>
       <c r="E12" t="n">
-        <v>1.91108697551548</v>
+        <v>1.890036905031159</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4692553967540892</v>
+        <v>-0.4684561276032672</v>
       </c>
       <c r="G12" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" t="n">
-        <v>55.10011205167889</v>
+        <v>55.05924434121472</v>
       </c>
       <c r="I12" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K12" t="n">
-        <v>148.0461835948168</v>
+        <v>147.6482501768639</v>
       </c>
       <c r="L12" t="n">
-        <v>4.889894218218654</v>
+        <v>4.846169921629688</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.9036661487066682</v>
+        <v>0.8953972438486422</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.336734693877551</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2959322721522206</v>
+        <v>0.3141025371574028</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7608586881974856</v>
+        <v>0.7665196490578516</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,65 +1503,65 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B13" t="n">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="C13" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D13" t="n">
-        <v>1.721675629908189</v>
+        <v>2.216112888074097</v>
       </c>
       <c r="E13" t="n">
-        <v>1.041196631964373</v>
+        <v>1.53483964549007</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6804789979438159</v>
+        <v>-0.6812732425840273</v>
       </c>
       <c r="G13" t="n">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="H13" t="n">
-        <v>23.09536264230468</v>
+        <v>26.16662970828665</v>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J13" t="n">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
-        <v>66.49628230466702</v>
+        <v>126.2356657443448</v>
       </c>
       <c r="L13" t="n">
-        <v>4.629032033563722</v>
+        <v>5.95632706528014</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(198), 'value': np.float64(1.0514684909861658), 'amplitude': np.float64(1.7327417335701931), 'start_idx': np.int64(180), 'end_idx': np.int64(231), 'duration': np.float64(51.0), 'fwhm': np.float64(22.408021401515185), 'rise_time': np.float64(18.0), 'decay_time': np.float64(33.0), 'auc': np.float64(60.92720972577416)}]</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.9272803594106959</v>
+        <v>0.8558305938346141</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.375</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3806838039829738</v>
+        <v>0.2145817715122546</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9611317757969069</v>
+        <v>0.742786652016078</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1598,19 +1598,19 @@
         <v>387</v>
       </c>
       <c r="D14" t="n">
-        <v>3.362578692684454</v>
+        <v>3.338678204580049</v>
       </c>
       <c r="E14" t="n">
-        <v>2.517313562111051</v>
+        <v>2.49286968536522</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8452651305734029</v>
+        <v>-0.8458085192148284</v>
       </c>
       <c r="G14" t="n">
         <v>240</v>
       </c>
       <c r="H14" t="n">
-        <v>45.76642391889476</v>
+        <v>45.45199914987981</v>
       </c>
       <c r="I14" t="n">
         <v>74</v>
@@ -1619,10 +1619,10 @@
         <v>166</v>
       </c>
       <c r="K14" t="n">
-        <v>349.0018506030461</v>
+        <v>349.1250049352437</v>
       </c>
       <c r="L14" t="n">
-        <v>8.509761099580704</v>
+        <v>8.376154298307958</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1638,16 +1638,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.5855480632553342</v>
+        <v>0.5867387300663293</v>
       </c>
       <c r="Q14" t="n">
         <v>0.4457831325301205</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3493368638024588</v>
+        <v>0.3406842896543023</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3681257558329396</v>
+        <v>0.3763695599000106</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1675,40 +1675,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="B15" t="n">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="C15" t="n">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="D15" t="n">
-        <v>2.458790124033693</v>
+        <v>1.330736245969775</v>
       </c>
       <c r="E15" t="n">
-        <v>2.021434565526347</v>
+        <v>0.8921762323886508</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4373555585073464</v>
+        <v>-0.4385600135811244</v>
       </c>
       <c r="G15" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H15" t="n">
-        <v>27.30417700603016</v>
+        <v>26.12508679980141</v>
       </c>
       <c r="I15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K15" t="n">
-        <v>58.8544504515701</v>
+        <v>40.13486868894127</v>
       </c>
       <c r="L15" t="n">
-        <v>7.23679222123068</v>
+        <v>3.982417061330035</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1724,16 +1724,16 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.5920147709659537</v>
+        <v>0.7738355648712957</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04572921585417904</v>
+        <v>0.1086157087089336</v>
       </c>
       <c r="S15" t="n">
-        <v>0.912305343128898</v>
+        <v>0.8698189683481594</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1761,40 +1761,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="B16" t="n">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="C16" t="n">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="D16" t="n">
-        <v>1.329021809355372</v>
+        <v>2.356377814690266</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8916662508480253</v>
+        <v>1.63702427218561</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4373555585073464</v>
+        <v>-0.719353542504656</v>
       </c>
       <c r="G16" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" t="n">
-        <v>26.67724641543799</v>
+        <v>28.81255887117268</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J16" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K16" t="n">
-        <v>40.4964580573324</v>
+        <v>81.26809272445078</v>
       </c>
       <c r="L16" t="n">
-        <v>3.911620840582603</v>
+        <v>5.911935859999482</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1810,24 +1810,24 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.7487253053723987</v>
+        <v>0.7742224633328321</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3947368421052632</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07911298239550625</v>
+        <v>0.217105896902477</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8570421069156799</v>
+        <v>0.9573931599581524</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>n35</t>
+          <t>n39</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1847,40 +1847,40 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="B17" t="n">
-        <v>222</v>
+        <v>280</v>
       </c>
       <c r="C17" t="n">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="D17" t="n">
-        <v>2.364879154768584</v>
+        <v>1.808453451651791</v>
       </c>
       <c r="E17" t="n">
-        <v>1.637784724029951</v>
+        <v>1.089099909147135</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7270944307386323</v>
+        <v>-0.719353542504656</v>
       </c>
       <c r="G17" t="n">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="H17" t="n">
-        <v>29.00288769194992</v>
+        <v>24.05703438372399</v>
       </c>
       <c r="I17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J17" t="n">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="K17" t="n">
-        <v>81.8042001300969</v>
+        <v>198.7719540992937</v>
       </c>
       <c r="L17" t="n">
-        <v>5.92308717259024</v>
+        <v>4.537243877151933</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1896,16 +1896,16 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.7860544888508452</v>
+        <v>0.745736848750273</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.71875</v>
+        <v>0.2429906542056075</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2626632273903463</v>
+        <v>0.6212198320870949</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9462797997860081</v>
+        <v>0.3893244798873098</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1933,40 +1933,40 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="B18" t="n">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C18" t="n">
         <v>387</v>
       </c>
       <c r="D18" t="n">
-        <v>1.836851935632606</v>
+        <v>2.322276707308944</v>
       </c>
       <c r="E18" t="n">
-        <v>1.109757504893974</v>
+        <v>1.607244454260107</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7270944307386323</v>
+        <v>-0.7150322530488369</v>
       </c>
       <c r="G18" t="n">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="H18" t="n">
-        <v>24.16005844555355</v>
+        <v>68.07059703992385</v>
       </c>
       <c r="I18" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="K18" t="n">
-        <v>199.9125804842578</v>
+        <v>222.2488895377688</v>
       </c>
       <c r="L18" t="n">
-        <v>4.600587778853204</v>
+        <v>5.163887184731103</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1982,24 +1982,24 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.7458028434660338</v>
+        <v>0.9468661022499429</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2429906542056075</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6283664879195694</v>
+        <v>0.2738004296418657</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3880042091045659</v>
+        <v>0.8660126766151466</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>n39</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="B19" t="n">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="C19" t="n">
         <v>387</v>
       </c>
       <c r="D19" t="n">
-        <v>2.322484573311191</v>
+        <v>1.386360473027402</v>
       </c>
       <c r="E19" t="n">
-        <v>1.601947638946323</v>
+        <v>0.8420717575681068</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7205369343648679</v>
+        <v>-0.5442887154592948</v>
       </c>
       <c r="G19" t="n">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="H19" t="n">
-        <v>69.27418713207999</v>
+        <v>19.69801574215052</v>
       </c>
       <c r="I19" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J19" t="n">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="K19" t="n">
-        <v>223.2412267558988</v>
+        <v>170.412180509362</v>
       </c>
       <c r="L19" t="n">
-        <v>5.152911407881559</v>
+        <v>3.712493189678153</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,24 +2068,24 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.9344344429029442</v>
+        <v>0.7032774888797085</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.2596153846153846</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2955576192538443</v>
+        <v>0.6568586298481476</v>
       </c>
       <c r="S19" t="n">
-        <v>0.8360159688627141</v>
+        <v>0.5584692304643359</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n46</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -2098,92 +2098,6 @@
         </is>
       </c>
       <c r="X19" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>257</v>
-      </c>
-      <c r="B20" t="n">
-        <v>283</v>
-      </c>
-      <c r="C20" t="n">
-        <v>387</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1.349786175778636</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.8173698687635808</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.532416307015055</v>
-      </c>
-      <c r="G20" t="n">
-        <v>130</v>
-      </c>
-      <c r="H20" t="n">
-        <v>20.00156240800419</v>
-      </c>
-      <c r="I20" t="n">
-        <v>26</v>
-      </c>
-      <c r="J20" t="n">
-        <v>104</v>
-      </c>
-      <c r="K20" t="n">
-        <v>168.2533110562991</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.623689855825601</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>0.6955934612578811</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.6665299324181998</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.5539118404588104</v>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>n46</t>
-        </is>
-      </c>
-      <c r="U20" t="n">
-        <v>105</v>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3Openfield2024-12-06171458trace/processed_29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3Openfield2024-12-06171458trace/processed_29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C2" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D2" t="n">
-        <v>2.503478864105829</v>
+        <v>2.435981392340752</v>
       </c>
       <c r="E2" t="n">
-        <v>1.689144059946253</v>
+        <v>1.645127272096375</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.8143348041595755</v>
+        <v>-0.7908541202443771</v>
       </c>
       <c r="G2" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H2" t="n">
-        <v>49.64114116767888</v>
+        <v>55.02046820463906</v>
       </c>
       <c r="I2" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J2" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K2" t="n">
-        <v>193.9025926531758</v>
+        <v>185.7662715238549</v>
       </c>
       <c r="L2" t="n">
-        <v>4.743530597288924</v>
+        <v>4.687322259627671</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7007392400003771</v>
+        <v>0.7755910272675047</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7261904761904762</v>
+        <v>0.7195121951219512</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1763646661469427</v>
+        <v>0.1724793577655974</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9123180432845804</v>
+        <v>0.9315553249634261</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B3" t="n">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C3" t="n">
         <v>387</v>
       </c>
       <c r="D3" t="n">
-        <v>2.602485050756194</v>
+        <v>2.441913573711879</v>
       </c>
       <c r="E3" t="n">
-        <v>1.788150246596618</v>
+        <v>1.651059453467502</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8143348041595755</v>
+        <v>-0.7908541202443771</v>
       </c>
       <c r="G3" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H3" t="n">
-        <v>43.93631038346433</v>
+        <v>46.1804059881984</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J3" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K3" t="n">
-        <v>167.762277587671</v>
+        <v>168.102166789575</v>
       </c>
       <c r="L3" t="n">
-        <v>4.931125101253168</v>
+        <v>4.698736979738614</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8922665094364568</v>
+        <v>0.8425374715823237</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3707865168539326</v>
+        <v>0.5119047619047619</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1859386296848081</v>
+        <v>0.1969609690119383</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9123584340361992</v>
+        <v>0.8945142298833511</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="B4" t="n">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="C4" t="n">
         <v>387</v>
       </c>
       <c r="D4" t="n">
-        <v>2.768866656849702</v>
+        <v>2.329644919266403</v>
       </c>
       <c r="E4" t="n">
-        <v>2.229993647876024</v>
+        <v>1.627343690891745</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5388730089736781</v>
+        <v>-0.7023012283746586</v>
       </c>
       <c r="G4" t="n">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="H4" t="n">
-        <v>39.47390343784417</v>
+        <v>109.4033763881361</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J4" t="n">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="K4" t="n">
-        <v>194.8173600711998</v>
+        <v>269.8505241150184</v>
       </c>
       <c r="L4" t="n">
-        <v>8.271465189958581</v>
+        <v>8.444412616365621</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.8823438636777011</v>
+        <v>0.7849105489779495</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5070422535211268</v>
+        <v>0.4563106796116505</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4649029933665957</v>
+        <v>0.2916838474793417</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9615124430562544</v>
+        <v>0.8033162526535848</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n2</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>387</v>
+        <v>111</v>
       </c>
       <c r="D5" t="n">
-        <v>2.345876896279637</v>
+        <v>3.281764615159098</v>
       </c>
       <c r="E5" t="n">
-        <v>1.666200105311703</v>
+        <v>2.559979884220693</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6796767909679339</v>
+        <v>-0.7217847309384042</v>
       </c>
       <c r="G5" t="n">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="H5" t="n">
-        <v>111.3855449551513</v>
+        <v>25.96150738354408</v>
       </c>
       <c r="I5" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="K5" t="n">
-        <v>266.4314108676739</v>
+        <v>226.7922641263987</v>
       </c>
       <c r="L5" t="n">
-        <v>8.137310446221278</v>
+        <v>27.25800880829579</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8715891358036837</v>
+        <v>0.8541665529835962</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3097345132743363</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3938043846702333</v>
+        <v>0.3631235879974289</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7677615451198554</v>
+        <v>0.9269213033322878</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n22</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="B6" t="n">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="C6" t="n">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="D6" t="n">
-        <v>2.221451987743052</v>
+        <v>1.897872078613914</v>
       </c>
       <c r="E6" t="n">
-        <v>1.620223118470063</v>
+        <v>1.18150884375838</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6012288692729884</v>
+        <v>-0.7163632348555334</v>
       </c>
       <c r="G6" t="n">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="H6" t="n">
-        <v>32.2922233378884</v>
+        <v>68.72887663804221</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K6" t="n">
-        <v>58.28782823445599</v>
+        <v>128.8794312793258</v>
       </c>
       <c r="L6" t="n">
-        <v>4.905906645956109</v>
+        <v>5.055403811102706</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.6927155619060739</v>
+        <v>0.7395389838956196</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1424174202723011</v>
+        <v>0.1756586690043561</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9807804968597715</v>
+        <v>0.7469133781057468</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n6</t>
+          <t>n32</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,73 +987,73 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B7" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C7" t="n">
         <v>387</v>
       </c>
       <c r="D7" t="n">
-        <v>2.142396132383847</v>
+        <v>3.095448136009336</v>
       </c>
       <c r="E7" t="n">
-        <v>1.643865559093444</v>
+        <v>2.220606656689591</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4985305732904033</v>
+        <v>-0.8748414793197447</v>
       </c>
       <c r="G7" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="H7" t="n">
-        <v>41.93128907540415</v>
+        <v>45.5437913633387</v>
       </c>
       <c r="I7" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J7" t="n">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K7" t="n">
-        <v>282.8211563241281</v>
+        <v>356.8442294898261</v>
       </c>
       <c r="L7" t="n">
-        <v>3.378590972645714</v>
+        <v>7.533126452876578</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(321), 'value': np.float64(1.3275518190598485), 'amplitude': np.float64(1.8260823923502518), 'start_idx': np.int64(289), 'end_idx': np.int64(361), 'duration': np.float64(72.0), 'fwhm': np.float64(31.439640671055884), 'rise_time': np.float64(32.0), 'decay_time': np.float64(40.0), 'auc': np.float64(86.02296612999685)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.482256834885738</v>
+        <v>0.5732023931685175</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5847953216374269</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="R7" t="n">
-        <v>0.437954335817299</v>
+        <v>0.4573129325708866</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4437040236772752</v>
+        <v>0.4066365206250919</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n8</t>
+          <t>n34</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="D8" t="n">
-        <v>2.603141282873496</v>
+        <v>2.230931399876843</v>
       </c>
       <c r="E8" t="n">
-        <v>1.890177752095651</v>
+        <v>1.547979734493549</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7129635307778447</v>
+        <v>-0.6829516653832937</v>
       </c>
       <c r="G8" t="n">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="H8" t="n">
-        <v>21.00169326821224</v>
+        <v>62.03833059734882</v>
       </c>
       <c r="I8" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J8" t="n">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="K8" t="n">
-        <v>154.7859271279868</v>
+        <v>216.34116944491</v>
       </c>
       <c r="L8" t="n">
-        <v>6.620404814745199</v>
+        <v>4.860888821378857</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.6079167721601139</v>
+        <v>0.94061170254135</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.673469387755102</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3092064935574402</v>
+        <v>0.2268168784330902</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9669791260407001</v>
+        <v>0.9491437851358313</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n15</t>
+          <t>n41</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>330</v>
+        <v>156</v>
       </c>
       <c r="B9" t="n">
-        <v>350</v>
+        <v>215</v>
       </c>
       <c r="C9" t="n">
         <v>387</v>
       </c>
       <c r="D9" t="n">
-        <v>1.51788598562336</v>
+        <v>2.316047516646924</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8654085557850214</v>
+        <v>1.98976428035071</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.652477429838339</v>
+        <v>-0.3262832362962139</v>
       </c>
       <c r="G9" t="n">
-        <v>57</v>
+        <v>231</v>
       </c>
       <c r="H9" t="n">
-        <v>21.17115253311033</v>
+        <v>68.77954368618617</v>
       </c>
       <c r="I9" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J9" t="n">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="K9" t="n">
-        <v>58.40216048946785</v>
+        <v>183.5461370235246</v>
       </c>
       <c r="L9" t="n">
-        <v>4.30367473400532</v>
+        <v>4.923485408993944</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,24 +1208,24 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.724258315856663</v>
+        <v>0.7756112796704631</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.3430232558139535</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3730380237650234</v>
+        <v>0.2892809506343413</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2901738692343073</v>
+        <v>0.7363992405786866</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n17</t>
+          <t>n43</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1238,866 +1238,6 @@
         </is>
       </c>
       <c r="X9" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>15</v>
-      </c>
-      <c r="C10" t="n">
-        <v>116</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.341960874566987</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.65997549659661</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.6819853779703769</v>
-      </c>
-      <c r="G10" t="n">
-        <v>116</v>
-      </c>
-      <c r="H10" t="n">
-        <v>25.86060978042496</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>101</v>
-      </c>
-      <c r="K10" t="n">
-        <v>225.2056393960819</v>
-      </c>
-      <c r="L10" t="n">
-        <v>23.82067885495338</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>0.8370415027534127</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.1485148514851485</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.3863469276672448</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.9143063867464793</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>n22</t>
-        </is>
-      </c>
-      <c r="U10" t="n">
-        <v>80</v>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>87</v>
-      </c>
-      <c r="B11" t="n">
-        <v>134</v>
-      </c>
-      <c r="C11" t="n">
-        <v>213</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.818721501017327</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.979580502772408</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.8391409982449186</v>
-      </c>
-      <c r="G11" t="n">
-        <v>126</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100.8411276703036</v>
-      </c>
-      <c r="I11" t="n">
-        <v>47</v>
-      </c>
-      <c r="J11" t="n">
-        <v>79</v>
-      </c>
-      <c r="K11" t="n">
-        <v>219.1575912300937</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6.539508928523238</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>0.7745596284175074</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.5949367088607594</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.3201018991116207</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.8601890073309384</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>n28</t>
-        </is>
-      </c>
-      <c r="U11" t="n">
-        <v>81</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>82</v>
-      </c>
-      <c r="B12" t="n">
-        <v>116</v>
-      </c>
-      <c r="C12" t="n">
-        <v>212</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.358493032634426</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.890036905031159</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.4684561276032672</v>
-      </c>
-      <c r="G12" t="n">
-        <v>130</v>
-      </c>
-      <c r="H12" t="n">
-        <v>55.05924434121472</v>
-      </c>
-      <c r="I12" t="n">
-        <v>34</v>
-      </c>
-      <c r="J12" t="n">
-        <v>96</v>
-      </c>
-      <c r="K12" t="n">
-        <v>147.6482501768639</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.846169921629688</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>0.8953972438486422</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.3141025371574028</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.7665196490578516</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>n29</t>
-        </is>
-      </c>
-      <c r="U12" t="n">
-        <v>82</v>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>139</v>
-      </c>
-      <c r="B13" t="n">
-        <v>164</v>
-      </c>
-      <c r="C13" t="n">
-        <v>245</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.216112888074097</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.53483964549007</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.6812732425840273</v>
-      </c>
-      <c r="G13" t="n">
-        <v>106</v>
-      </c>
-      <c r="H13" t="n">
-        <v>26.16662970828665</v>
-      </c>
-      <c r="I13" t="n">
-        <v>25</v>
-      </c>
-      <c r="J13" t="n">
-        <v>81</v>
-      </c>
-      <c r="K13" t="n">
-        <v>126.2356657443448</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5.95632706528014</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>complex</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[{'index': np.int64(198), 'value': np.float64(1.0514684909861658), 'amplitude': np.float64(1.7327417335701931), 'start_idx': np.int64(180), 'end_idx': np.int64(231), 'duration': np.float64(51.0), 'fwhm': np.float64(22.408021401515185), 'rise_time': np.float64(18.0), 'decay_time': np.float64(33.0), 'auc': np.float64(60.92720972577416)}]</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>0.8558305938346141</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.308641975308642</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.2145817715122546</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.742786652016078</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>n32</t>
-        </is>
-      </c>
-      <c r="U13" t="n">
-        <v>83</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>147</v>
-      </c>
-      <c r="B14" t="n">
-        <v>221</v>
-      </c>
-      <c r="C14" t="n">
-        <v>387</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.338678204580049</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2.49286968536522</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.8458085192148284</v>
-      </c>
-      <c r="G14" t="n">
-        <v>240</v>
-      </c>
-      <c r="H14" t="n">
-        <v>45.45199914987981</v>
-      </c>
-      <c r="I14" t="n">
-        <v>74</v>
-      </c>
-      <c r="J14" t="n">
-        <v>166</v>
-      </c>
-      <c r="K14" t="n">
-        <v>349.1250049352437</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8.376154298307958</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>0.5867387300663293</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.4457831325301205</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.3406842896543023</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.3763695599000106</v>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>n34</t>
-        </is>
-      </c>
-      <c r="U14" t="n">
-        <v>84</v>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>238</v>
-      </c>
-      <c r="B15" t="n">
-        <v>253</v>
-      </c>
-      <c r="C15" t="n">
-        <v>290</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.330736245969775</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.8921762323886508</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.4385600135811244</v>
-      </c>
-      <c r="G15" t="n">
-        <v>52</v>
-      </c>
-      <c r="H15" t="n">
-        <v>26.12508679980141</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15</v>
-      </c>
-      <c r="J15" t="n">
-        <v>37</v>
-      </c>
-      <c r="K15" t="n">
-        <v>40.13486868894127</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.982417061330035</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>0.7738355648712957</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.4054054054054054</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.1086157087089336</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.8698189683481594</v>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>n35</t>
-        </is>
-      </c>
-      <c r="U15" t="n">
-        <v>85</v>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>199</v>
-      </c>
-      <c r="B16" t="n">
-        <v>223</v>
-      </c>
-      <c r="C16" t="n">
-        <v>254</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.356377814690266</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.63702427218561</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.719353542504656</v>
-      </c>
-      <c r="G16" t="n">
-        <v>55</v>
-      </c>
-      <c r="H16" t="n">
-        <v>28.81255887117268</v>
-      </c>
-      <c r="I16" t="n">
-        <v>24</v>
-      </c>
-      <c r="J16" t="n">
-        <v>31</v>
-      </c>
-      <c r="K16" t="n">
-        <v>81.26809272445078</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.911935859999482</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>0.7742224633328321</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.7741935483870968</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.217105896902477</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.9573931599581524</v>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>n39</t>
-        </is>
-      </c>
-      <c r="U16" t="n">
-        <v>86</v>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>254</v>
-      </c>
-      <c r="B17" t="n">
-        <v>280</v>
-      </c>
-      <c r="C17" t="n">
-        <v>387</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.808453451651791</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1.089099909147135</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.719353542504656</v>
-      </c>
-      <c r="G17" t="n">
-        <v>133</v>
-      </c>
-      <c r="H17" t="n">
-        <v>24.05703438372399</v>
-      </c>
-      <c r="I17" t="n">
-        <v>26</v>
-      </c>
-      <c r="J17" t="n">
-        <v>107</v>
-      </c>
-      <c r="K17" t="n">
-        <v>198.7719540992937</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.537243877151933</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>0.745736848750273</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.2429906542056075</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.6212198320870949</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.3893244798873098</v>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>n39</t>
-        </is>
-      </c>
-      <c r="U17" t="n">
-        <v>87</v>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>223</v>
-      </c>
-      <c r="B18" t="n">
-        <v>261</v>
-      </c>
-      <c r="C18" t="n">
-        <v>387</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.322276707308944</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.607244454260107</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.7150322530488369</v>
-      </c>
-      <c r="G18" t="n">
-        <v>164</v>
-      </c>
-      <c r="H18" t="n">
-        <v>68.07059703992385</v>
-      </c>
-      <c r="I18" t="n">
-        <v>38</v>
-      </c>
-      <c r="J18" t="n">
-        <v>126</v>
-      </c>
-      <c r="K18" t="n">
-        <v>222.2488895377688</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.163887184731103</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>0.9468661022499429</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.3015873015873016</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.2738004296418657</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.8660126766151466</v>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>n41</t>
-        </is>
-      </c>
-      <c r="U18" t="n">
-        <v>88</v>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>256</v>
-      </c>
-      <c r="B19" t="n">
-        <v>283</v>
-      </c>
-      <c r="C19" t="n">
-        <v>387</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1.386360473027402</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.8420717575681068</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.5442887154592948</v>
-      </c>
-      <c r="G19" t="n">
-        <v>131</v>
-      </c>
-      <c r="H19" t="n">
-        <v>19.69801574215052</v>
-      </c>
-      <c r="I19" t="n">
-        <v>27</v>
-      </c>
-      <c r="J19" t="n">
-        <v>104</v>
-      </c>
-      <c r="K19" t="n">
-        <v>170.412180509362</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.712493189678153</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>simple</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>0.7032774888797085</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.2596153846153846</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.6568586298481476</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.5584692304643359</v>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>n46</t>
-        </is>
-      </c>
-      <c r="U19" t="n">
-        <v>89</v>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3Openfield2024-12-06171458trace/processed_29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3Openfield2024-12-06171458trace/processed_29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,40 +557,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B2" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C2" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D2" t="n">
-        <v>2.435981392340752</v>
+        <v>2.503478864105829</v>
       </c>
       <c r="E2" t="n">
-        <v>1.645127272096375</v>
+        <v>1.689144059946253</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.7908541202443771</v>
+        <v>-0.8143348041595755</v>
       </c>
       <c r="G2" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H2" t="n">
-        <v>55.02046820463906</v>
+        <v>49.64114116767888</v>
       </c>
       <c r="I2" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J2" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K2" t="n">
-        <v>185.7662715238549</v>
+        <v>193.9025926531758</v>
       </c>
       <c r="L2" t="n">
-        <v>4.687322259627671</v>
+        <v>4.743530597288924</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.7755910272675047</v>
+        <v>0.7007392400003771</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7195121951219512</v>
+        <v>0.7261904761904762</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1724793577655974</v>
+        <v>0.1763646661469427</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9315553249634261</v>
+        <v>0.9123180432845804</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -643,40 +643,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B3" t="n">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C3" t="n">
         <v>387</v>
       </c>
       <c r="D3" t="n">
-        <v>2.441913573711879</v>
+        <v>2.602485050756194</v>
       </c>
       <c r="E3" t="n">
-        <v>1.651059453467502</v>
+        <v>1.788150246596618</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.7908541202443771</v>
+        <v>-0.8143348041595755</v>
       </c>
       <c r="G3" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H3" t="n">
-        <v>46.1804059881984</v>
+        <v>43.93631038346433</v>
       </c>
       <c r="I3" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K3" t="n">
-        <v>168.102166789575</v>
+        <v>167.762277587671</v>
       </c>
       <c r="L3" t="n">
-        <v>4.698736979738614</v>
+        <v>4.931125101253168</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.8425374715823237</v>
+        <v>0.8922665094364568</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5119047619047619</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1969609690119383</v>
+        <v>0.1859386296848081</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8945142298833511</v>
+        <v>0.9123584340361992</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -729,40 +729,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="B4" t="n">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="C4" t="n">
         <v>387</v>
       </c>
       <c r="D4" t="n">
-        <v>2.329644919266403</v>
+        <v>2.768866656849702</v>
       </c>
       <c r="E4" t="n">
-        <v>1.627343690891745</v>
+        <v>2.229993647876024</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7023012283746586</v>
+        <v>-0.5388730089736781</v>
       </c>
       <c r="G4" t="n">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="H4" t="n">
-        <v>109.4033763881361</v>
+        <v>39.47390343784417</v>
       </c>
       <c r="I4" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="K4" t="n">
-        <v>269.8505241150184</v>
+        <v>194.8173600711998</v>
       </c>
       <c r="L4" t="n">
-        <v>8.444412616365621</v>
+        <v>8.271465189958581</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -778,24 +778,24 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.7849105489779495</v>
+        <v>0.8823438636777011</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4563106796116505</v>
+        <v>0.5070422535211268</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2916838474793417</v>
+        <v>0.4649029933665957</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8033162526535848</v>
+        <v>0.9615124430562544</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>n3</t>
+          <t>n2</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -815,40 +815,40 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>274</v>
       </c>
       <c r="C5" t="n">
-        <v>111</v>
+        <v>387</v>
       </c>
       <c r="D5" t="n">
-        <v>3.281764615159098</v>
+        <v>2.345876896279637</v>
       </c>
       <c r="E5" t="n">
-        <v>2.559979884220693</v>
+        <v>1.666200105311703</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7217847309384042</v>
+        <v>-0.6796767909679339</v>
       </c>
       <c r="G5" t="n">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="H5" t="n">
-        <v>25.96150738354408</v>
+        <v>111.3855449551513</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="K5" t="n">
-        <v>226.7922641263987</v>
+        <v>266.4314108676739</v>
       </c>
       <c r="L5" t="n">
-        <v>27.25800880829579</v>
+        <v>8.137310446221278</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -864,24 +864,24 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.8541665529835962</v>
+        <v>0.8715891358036837</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1684210526315789</v>
+        <v>0.3097345132743363</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3631235879974289</v>
+        <v>0.3938043846702333</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9269213033322878</v>
+        <v>0.7677615451198554</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>n22</t>
+          <t>n3</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -901,40 +901,40 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="B6" t="n">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>236</v>
+        <v>108</v>
       </c>
       <c r="D6" t="n">
-        <v>1.897872078613914</v>
+        <v>2.221451987743052</v>
       </c>
       <c r="E6" t="n">
-        <v>1.18150884375838</v>
+        <v>1.620223118470063</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7163632348555334</v>
+        <v>-0.6012288692729884</v>
       </c>
       <c r="G6" t="n">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="H6" t="n">
-        <v>68.72887663804221</v>
+        <v>32.2922233378884</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="K6" t="n">
-        <v>128.8794312793258</v>
+        <v>58.28782823445599</v>
       </c>
       <c r="L6" t="n">
-        <v>5.055403811102706</v>
+        <v>4.905906645956109</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -950,24 +950,24 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.7395389838956196</v>
+        <v>0.6927155619060739</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1756586690043561</v>
+        <v>0.1424174202723011</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7469133781057468</v>
+        <v>0.9807804968597715</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>n32</t>
+          <t>n6</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -987,73 +987,73 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B7" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C7" t="n">
         <v>387</v>
       </c>
       <c r="D7" t="n">
-        <v>3.095448136009336</v>
+        <v>2.142396132383847</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220606656689591</v>
+        <v>1.643865559093444</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.8748414793197447</v>
+        <v>-0.4985305732904033</v>
       </c>
       <c r="G7" t="n">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="H7" t="n">
-        <v>45.5437913633387</v>
+        <v>41.93128907540415</v>
       </c>
       <c r="I7" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="K7" t="n">
-        <v>356.8442294898261</v>
+        <v>282.8211563241281</v>
       </c>
       <c r="L7" t="n">
-        <v>7.533126452876578</v>
+        <v>3.378590972645714</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[{'index': np.int64(321), 'value': np.float64(1.3275518190598485), 'amplitude': np.float64(1.8260823923502518), 'start_idx': np.int64(289), 'end_idx': np.int64(361), 'duration': np.float64(72.0), 'fwhm': np.float64(31.439640671055884), 'rise_time': np.float64(32.0), 'decay_time': np.float64(40.0), 'auc': np.float64(86.02296612999685)}]</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.5732023931685175</v>
+        <v>0.482256834885738</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5636363636363636</v>
+        <v>0.5847953216374269</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4573129325708866</v>
+        <v>0.437954335817299</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4066365206250919</v>
+        <v>0.4437040236772752</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>n34</t>
+          <t>n8</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1073,40 +1073,40 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>2.230931399876843</v>
+        <v>2.603141282873496</v>
       </c>
       <c r="E8" t="n">
-        <v>1.547979734493549</v>
+        <v>1.890177752095651</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6829516653832937</v>
+        <v>-0.7129635307778447</v>
       </c>
       <c r="G8" t="n">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="H8" t="n">
-        <v>62.03833059734882</v>
+        <v>21.00169326821224</v>
       </c>
       <c r="I8" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="K8" t="n">
-        <v>216.34116944491</v>
+        <v>154.7859271279868</v>
       </c>
       <c r="L8" t="n">
-        <v>4.860888821378857</v>
+        <v>6.620404814745199</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1122,24 +1122,24 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.94061170254135</v>
+        <v>0.6079167721601139</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="R8" t="n">
-        <v>0.2268168784330902</v>
+        <v>0.3092064935574402</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9491437851358313</v>
+        <v>0.9669791260407001</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>n41</t>
+          <t>n15</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1159,40 +1159,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>156</v>
+        <v>330</v>
       </c>
       <c r="B9" t="n">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="C9" t="n">
         <v>387</v>
       </c>
       <c r="D9" t="n">
-        <v>2.316047516646924</v>
+        <v>1.51788598562336</v>
       </c>
       <c r="E9" t="n">
-        <v>1.98976428035071</v>
+        <v>0.8654085557850214</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.3262832362962139</v>
+        <v>-0.652477429838339</v>
       </c>
       <c r="G9" t="n">
-        <v>231</v>
+        <v>57</v>
       </c>
       <c r="H9" t="n">
-        <v>68.77954368618617</v>
+        <v>21.17115253311033</v>
       </c>
       <c r="I9" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J9" t="n">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="K9" t="n">
-        <v>183.5461370235246</v>
+        <v>58.40216048946785</v>
       </c>
       <c r="L9" t="n">
-        <v>4.923485408993944</v>
+        <v>4.30367473400532</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1208,36 +1208,896 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.7756112796704631</v>
+        <v>0.724258315856663</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3430232558139535</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="R9" t="n">
-        <v>0.2892809506343413</v>
+        <v>0.3730380237650234</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7363992405786866</v>
+        <v>0.2901738692343073</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>n43</t>
+          <t>n17</t>
         </is>
       </c>
       <c r="U9" t="n">
+        <v>79</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>116</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.341960874566987</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.65997549659661</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.6819853779703769</v>
+      </c>
+      <c r="G10" t="n">
+        <v>116</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25.86060978042496</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>101</v>
+      </c>
+      <c r="K10" t="n">
+        <v>225.2056393960819</v>
+      </c>
+      <c r="L10" t="n">
+        <v>23.82067885495338</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0.8370415027534127</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.1485148514851485</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.3863469276672448</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9143063867464793</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>n22</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>80</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>87</v>
+      </c>
+      <c r="B11" t="n">
+        <v>134</v>
+      </c>
+      <c r="C11" t="n">
+        <v>213</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.818721501017327</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.979580502772408</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.8391409982449186</v>
+      </c>
+      <c r="G11" t="n">
+        <v>126</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100.8411276703036</v>
+      </c>
+      <c r="I11" t="n">
         <v>47</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="J11" t="n">
+        <v>79</v>
+      </c>
+      <c r="K11" t="n">
+        <v>219.1575912300937</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.539508928523238</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0.7745596284175074</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5949367088607594</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.3201018991116207</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8601890073309384</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>n28</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>81</v>
+      </c>
+      <c r="V11" t="inlineStr">
         <is>
           <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>82</v>
+      </c>
+      <c r="B12" t="n">
+        <v>116</v>
+      </c>
+      <c r="C12" t="n">
+        <v>212</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.358493032634426</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.890036905031159</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.4684561276032672</v>
+      </c>
+      <c r="G12" t="n">
+        <v>130</v>
+      </c>
+      <c r="H12" t="n">
+        <v>55.05924434121472</v>
+      </c>
+      <c r="I12" t="n">
+        <v>34</v>
+      </c>
+      <c r="J12" t="n">
+        <v>96</v>
+      </c>
+      <c r="K12" t="n">
+        <v>147.6482501768639</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.846169921629688</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8953972438486422</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.3141025371574028</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.7665196490578516</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>n29</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>82</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>139</v>
+      </c>
+      <c r="B13" t="n">
+        <v>164</v>
+      </c>
+      <c r="C13" t="n">
+        <v>245</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.216112888074097</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.53483964549007</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6812732425840273</v>
+      </c>
+      <c r="G13" t="n">
+        <v>106</v>
+      </c>
+      <c r="H13" t="n">
+        <v>26.16662970828665</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>81</v>
+      </c>
+      <c r="K13" t="n">
+        <v>126.2356657443448</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.95632706528014</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>complex</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>[{'index': np.int64(198), 'value': np.float64(1.0514684909861658), 'amplitude': np.float64(1.7327417335701931), 'start_idx': np.int64(180), 'end_idx': np.int64(231), 'duration': np.float64(51.0), 'fwhm': np.float64(22.408021401515185), 'rise_time': np.float64(18.0), 'decay_time': np.float64(33.0), 'auc': np.float64(60.92720972577416)}]</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8558305938346141</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.308641975308642</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.2145817715122546</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.742786652016078</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>n32</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>83</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>147</v>
+      </c>
+      <c r="B14" t="n">
+        <v>221</v>
+      </c>
+      <c r="C14" t="n">
+        <v>387</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.338678204580049</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.49286968536522</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.8458085192148284</v>
+      </c>
+      <c r="G14" t="n">
+        <v>240</v>
+      </c>
+      <c r="H14" t="n">
+        <v>45.45199914987981</v>
+      </c>
+      <c r="I14" t="n">
+        <v>74</v>
+      </c>
+      <c r="J14" t="n">
+        <v>166</v>
+      </c>
+      <c r="K14" t="n">
+        <v>349.1250049352437</v>
+      </c>
+      <c r="L14" t="n">
+        <v>8.376154298307958</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>0.5867387300663293</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.4457831325301205</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.3406842896543023</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.3763695599000106</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>n34</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>84</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>238</v>
+      </c>
+      <c r="B15" t="n">
+        <v>253</v>
+      </c>
+      <c r="C15" t="n">
+        <v>290</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.330736245969775</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8921762323886508</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.4385600135811244</v>
+      </c>
+      <c r="G15" t="n">
+        <v>52</v>
+      </c>
+      <c r="H15" t="n">
+        <v>26.12508679980141</v>
+      </c>
+      <c r="I15" t="n">
+        <v>15</v>
+      </c>
+      <c r="J15" t="n">
+        <v>37</v>
+      </c>
+      <c r="K15" t="n">
+        <v>40.13486868894127</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.982417061330035</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>0.7738355648712957</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.4054054054054054</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.1086157087089336</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.8698189683481594</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>n35</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>85</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>199</v>
+      </c>
+      <c r="B16" t="n">
+        <v>223</v>
+      </c>
+      <c r="C16" t="n">
+        <v>254</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.356377814690266</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.63702427218561</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.719353542504656</v>
+      </c>
+      <c r="G16" t="n">
+        <v>55</v>
+      </c>
+      <c r="H16" t="n">
+        <v>28.81255887117268</v>
+      </c>
+      <c r="I16" t="n">
+        <v>24</v>
+      </c>
+      <c r="J16" t="n">
+        <v>31</v>
+      </c>
+      <c r="K16" t="n">
+        <v>81.26809272445078</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.911935859999482</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0.7742224633328321</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.217105896902477</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.9573931599581524</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>86</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>254</v>
+      </c>
+      <c r="B17" t="n">
+        <v>280</v>
+      </c>
+      <c r="C17" t="n">
+        <v>387</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.808453451651791</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.089099909147135</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.719353542504656</v>
+      </c>
+      <c r="G17" t="n">
+        <v>133</v>
+      </c>
+      <c r="H17" t="n">
+        <v>24.05703438372399</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26</v>
+      </c>
+      <c r="J17" t="n">
+        <v>107</v>
+      </c>
+      <c r="K17" t="n">
+        <v>198.7719540992937</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.537243877151933</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>0.745736848750273</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.2429906542056075</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.6212198320870949</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.3893244798873098</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>n39</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>87</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>223</v>
+      </c>
+      <c r="B18" t="n">
+        <v>261</v>
+      </c>
+      <c r="C18" t="n">
+        <v>387</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.322276707308944</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.607244454260107</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.7150322530488369</v>
+      </c>
+      <c r="G18" t="n">
+        <v>164</v>
+      </c>
+      <c r="H18" t="n">
+        <v>68.07059703992385</v>
+      </c>
+      <c r="I18" t="n">
+        <v>38</v>
+      </c>
+      <c r="J18" t="n">
+        <v>126</v>
+      </c>
+      <c r="K18" t="n">
+        <v>222.2488895377688</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5.163887184731103</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0.9468661022499429</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.3015873015873016</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.2738004296418657</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.8660126766151466</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>n41</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>88</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>256</v>
+      </c>
+      <c r="B19" t="n">
+        <v>283</v>
+      </c>
+      <c r="C19" t="n">
+        <v>387</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.386360473027402</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8420717575681068</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.5442887154592948</v>
+      </c>
+      <c r="G19" t="n">
+        <v>131</v>
+      </c>
+      <c r="H19" t="n">
+        <v>19.69801574215052</v>
+      </c>
+      <c r="I19" t="n">
+        <v>27</v>
+      </c>
+      <c r="J19" t="n">
+        <v>104</v>
+      </c>
+      <c r="K19" t="n">
+        <v>170.412180509362</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.712493189678153</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0.7032774888797085</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.2596153846153846</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.6568586298481476</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.5584692304643359</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>n46</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>89</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
         </is>

--- a/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3Openfield2024-12-06171458trace/processed_29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
+++ b/Visualization/results/processed_2979_all_datasets_analysis/processed_29791011csdsDAY3Openfield2024-12-06171458trace/processed_29791011csdsDAY3Openfield2024-12-06171458trace_transients.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="U4" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="U5" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="U6" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="U7" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="U8" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="U9" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="U10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
         </is>
       </c>
       <c r="U11" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="U12" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1503,65 +1503,65 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="B13" t="n">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C13" t="n">
         <v>245</v>
       </c>
       <c r="D13" t="n">
-        <v>2.216112888074097</v>
+        <v>1.732741733570193</v>
       </c>
       <c r="E13" t="n">
-        <v>1.53483964549007</v>
+        <v>1.051468490986166</v>
       </c>
       <c r="F13" t="n">
         <v>-0.6812732425840273</v>
       </c>
       <c r="G13" t="n">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="H13" t="n">
-        <v>26.16662970828665</v>
+        <v>22.40802140151519</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J13" t="n">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="K13" t="n">
-        <v>126.2356657443448</v>
+        <v>66.10266032951915</v>
       </c>
       <c r="L13" t="n">
-        <v>5.95632706528014</v>
+        <v>4.657152864524783</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>[{'index': np.int64(198), 'value': np.float64(1.0514684909861658), 'amplitude': np.float64(1.7327417335701931), 'start_idx': np.int64(180), 'end_idx': np.int64(231), 'duration': np.float64(51.0), 'fwhm': np.float64(22.408021401515185), 'rise_time': np.float64(18.0), 'decay_time': np.float64(33.0), 'auc': np.float64(60.92720972577416)}]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.8558305938346141</v>
+        <v>0.9212236473081565</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.308641975308642</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2145817715122546</v>
+        <v>0.3725372629975202</v>
       </c>
       <c r="S13" t="n">
-        <v>0.742786652016078</v>
+        <v>0.9613201536712982</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="U13" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="U14" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="U15" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="U16" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="U17" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="U18" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -2019,40 +2019,40 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>283</v>
+        <v>19</v>
       </c>
       <c r="C19" t="n">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="D19" t="n">
-        <v>1.386360473027402</v>
+        <v>3.285656580434125</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8420717575681068</v>
+        <v>2.59472885360375</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5442887154592948</v>
+        <v>-0.6909277268303744</v>
       </c>
       <c r="G19" t="n">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="H19" t="n">
-        <v>19.69801574215052</v>
+        <v>20.21082183252709</v>
       </c>
       <c r="I19" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="K19" t="n">
-        <v>170.412180509362</v>
+        <v>166.7124087422192</v>
       </c>
       <c r="L19" t="n">
-        <v>3.712493189678153</v>
+        <v>15.44636456064723</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -2068,36 +2068,122 @@
         </is>
       </c>
       <c r="P19" t="n">
+        <v>0.9075953287581473</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3275862068965517</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3924388957132927</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.9637247895394163</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>n42</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>94</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>256</v>
+      </c>
+      <c r="B20" t="n">
+        <v>283</v>
+      </c>
+      <c r="C20" t="n">
+        <v>387</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.386360473027402</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8420717575681068</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.5442887154592948</v>
+      </c>
+      <c r="G20" t="n">
+        <v>131</v>
+      </c>
+      <c r="H20" t="n">
+        <v>19.69801574215052</v>
+      </c>
+      <c r="I20" t="n">
+        <v>27</v>
+      </c>
+      <c r="J20" t="n">
+        <v>104</v>
+      </c>
+      <c r="K20" t="n">
+        <v>170.412180509362</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.712493189678153</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
         <v>0.7032774888797085</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q20" t="n">
         <v>0.2596153846153846</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R20" t="n">
         <v>0.6568586298481476</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S20" t="n">
         <v>0.5584692304643359</v>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>n46</t>
         </is>
       </c>
-      <c r="U19" t="n">
-        <v>89</v>
-      </c>
-      <c r="V19" t="inlineStr">
+      <c r="U20" t="n">
+        <v>95</v>
+      </c>
+      <c r="V20" t="inlineStr">
         <is>
           <t>processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t>Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\2979数据\csdsday3\processed_29791011csdsDAY3Openfield2024-12-06171458trace.xlsx</t>
         </is>
